--- a/QCS_Pipeline/Pipeline_#1_QCS/Excel/NO_Norm_QCS_batch_dataset_excel.xlsx
+++ b/QCS_Pipeline/Pipeline_#1_QCS/Excel/NO_Norm_QCS_batch_dataset_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,7 +27,16 @@
     <t xml:space="preserve">batch</t>
   </si>
   <si>
-    <t xml:space="preserve">260.186</t>
+    <t xml:space="preserve">QCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row</t>
   </si>
   <si>
     <t xml:space="preserve">intraday_rsd</t>
@@ -249,6 +258,114 @@
     <t xml:space="preserve">38.748527526855</t>
   </si>
   <si>
+    <t xml:space="preserve">Peak area - S7_QCS_1 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.19589233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S7_QCS_2 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.10464477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S7_QCS_3 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.962097167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S7_QCS_4 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.33469390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S7_QCS_5 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.84741210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S7_QCS_6 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197.05493164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S8_QCS_1 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207.20307922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S8_QCS_2 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199.87573242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S8_QCS_3 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.93975067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S8_QCS_4 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.48139953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S8_QCS_5 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.47265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S8_QCS_6 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197.11683654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S9_QCS_1 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.51699829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S9_QCS_2 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.28141784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S9_QCS_3 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.399871826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S9_QCS_4 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.644439697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S9_QCS_5 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.310455322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S9_QCS_6 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.85231018066</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peak area - S10_QCS_1 - No Normalization</t>
   </si>
   <si>
@@ -355,114 +472,6 @@
   </si>
   <si>
     <t xml:space="preserve">103.96886444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S7_QCS_1 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.19589233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S7_QCS_2 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.10464477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S7_QCS_3 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.962097167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S7_QCS_4 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.33469390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S7_QCS_5 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.84741210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S7_QCS_6 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197.05493164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S8_QCS_1 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207.20307922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S8_QCS_2 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199.87573242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S8_QCS_3 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.93975067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S8_QCS_4 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.48139953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S8_QCS_5 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.47265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S8_QCS_6 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197.11683654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S9_QCS_1 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.51699829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S9_QCS_2 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.28141784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S9_QCS_3 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.399871826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S9_QCS_4 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.644439697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S9_QCS_5 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.310455322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S9_QCS_6 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.85231018066</t>
   </si>
   <si>
     <t xml:space="preserve">Peak area - S13_QCS_1 - No Normalization</t>
@@ -1027,1844 +1036,2609 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>221</v>
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E15" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E16" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="B17" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="E17" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="B18" t="n">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="E18" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="E19" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="B20" t="n">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="E21" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B22" t="n">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="E22" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="B23" t="n">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="E24" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="B25" t="n">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="E25" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="B26" t="n">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="E26" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="B27" t="n">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="E27" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="B28" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="E28" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="E29" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="E30" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="B31" t="n">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="E31" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="B32" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="E32" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="B33" t="n">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="E33" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="E34" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="B35" t="n">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E35" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="B36" t="n">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="E36" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="B37" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="E37" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="B38" t="n">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="E38" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="B39" t="n">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="E39" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="B40" t="n">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="E40" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="B41" t="n">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="E41" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="B42" t="n">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="E42" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="B43" t="n">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="E43" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="B44" t="n">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="E44" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="B45" t="n">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="E45" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="B46" t="n">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="E46" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="B47" t="n">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="E47" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="B48" t="n">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="E48" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="B49" t="n">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="E49" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="B50" t="n">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="E50" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="B51" t="n">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="E51" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="B52" t="n">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="E52" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="B53" t="n">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="E53" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="B54" t="n">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="E54" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="B55" t="n">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="E55" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="E56" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="E57" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" t="n">
         <v>10</v>
       </c>
-      <c r="E58" t="n">
-        <v>52.0478854131583</v>
-      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="E59" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="E60" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="B61" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="E61" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="E62" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E63" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="B64" t="n">
+        <v>74</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" t="n">
         <v>11</v>
       </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" t="n">
-        <v>52.0478854131583</v>
-      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="B65" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="E65" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B66" t="n">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="E66" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="B67" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="E67" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="B68" t="n">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="E68" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="B69" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="E69" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="B70" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="E70" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B71" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="E71" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="B72" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="E72" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="B73" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="E73" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="B74" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="E74" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="B75" t="n">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="E75" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B76" t="n">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="E76" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="B77" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="E77" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="B78" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="E78" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="B79" t="n">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="E79" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="B80" t="n">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="E80" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="B81" t="n">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="E81" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="B82" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="E82" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="B83" t="n">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="E83" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="B84" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="E84" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="B85" t="n">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="E85" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="B86" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="E86" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="B87" t="n">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="E87" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="B88" t="n">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="E88" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="B89" t="n">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="E89" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="B90" t="n">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="E90" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="B91" t="n">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="E91" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="B92" t="n">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="E92" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="B93" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="E93" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="B94" t="n">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="E94" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="B95" t="n">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="E95" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="B96" t="n">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="E96" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="B97" t="n">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="E97" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="B98" t="n">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="E98" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="B99" t="n">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="E99" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="B100" t="n">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="E100" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="B101" t="n">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="E101" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="B102" t="n">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="E102" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="B103" t="n">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="E103" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="B104" t="n">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="E104" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="B105" t="n">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="E105" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="B106" t="n">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="E106" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="B107" t="n">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="E107" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="B108" t="n">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="E108" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="B109" t="n">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="E109" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2896,10 +3670,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -2908,15 +3691,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -2925,15 +3715,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -2942,15 +3739,22 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>5</v>
@@ -2959,15 +3763,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -2976,15 +3787,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
@@ -2993,15 +3811,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>9</v>
@@ -3010,15 +3835,22 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
         <v>10</v>
@@ -3027,15 +3859,22 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" t="n">
         <v>11</v>
@@ -3044,15 +3883,22 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>12</v>
@@ -3061,15 +3907,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n">
         <v>13</v>
@@ -3078,15 +3931,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
         <v>14</v>
@@ -3095,15 +3955,22 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
         <v>16</v>
@@ -3112,15 +3979,22 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>17</v>
@@ -3129,15 +4003,22 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E15" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
         <v>18</v>
@@ -3146,15 +4027,22 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E16" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" t="n">
         <v>19</v>
@@ -3163,15 +4051,22 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E17" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18" t="n">
         <v>20</v>
@@ -3180,15 +4075,22 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
         <v>21</v>
@@ -3197,15 +4099,22 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E19" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B20" t="n">
         <v>23</v>
@@ -3214,15 +4123,22 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B21" t="n">
         <v>24</v>
@@ -3231,15 +4147,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E21" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B22" t="n">
         <v>25</v>
@@ -3248,15 +4171,22 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E22" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B23" t="n">
         <v>26</v>
@@ -3265,15 +4195,22 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B24" t="n">
         <v>27</v>
@@ -3282,15 +4219,22 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E24" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B25" t="n">
         <v>28</v>
@@ -3299,15 +4243,22 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E25" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B26" t="n">
         <v>30</v>
@@ -3316,15 +4267,22 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E26" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B27" t="n">
         <v>31</v>
@@ -3333,15 +4291,22 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E27" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B28" t="n">
         <v>32</v>
@@ -3350,15 +4315,22 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E28" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B29" t="n">
         <v>33</v>
@@ -3367,15 +4339,22 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E29" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n">
         <v>34</v>
@@ -3384,15 +4363,22 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E30" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B31" t="n">
         <v>35</v>
@@ -3401,15 +4387,22 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E31" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B32" t="n">
         <v>37</v>
@@ -3418,15 +4411,22 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E32" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33" t="n">
         <v>38</v>
@@ -3435,15 +4435,22 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E33" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
         <v>39</v>
@@ -3452,15 +4459,22 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E34" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B35" t="n">
         <v>40</v>
@@ -3469,15 +4483,22 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E35" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B36" t="n">
         <v>41</v>
@@ -3486,15 +4507,22 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E36" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B37" t="n">
         <v>42</v>
@@ -3503,11 +4531,18 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E37" t="n">
-        <v>70.5002514662777</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3539,618 +4574,879 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B3" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B4" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E4" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B5" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B6" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E6" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E7" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B8" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E8" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B9" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E9" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B10" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E10" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E11" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B12" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E12" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B13" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E13" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B14" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E14" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E15" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B16" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E16" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B17" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E17" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B18" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E18" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B19" t="n">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E19" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B20" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E20" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B21" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E21" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B22" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E22" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B23" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E23" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B24" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E24" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B25" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E25" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B26" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E26" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E27" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B28" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E28" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B29" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E29" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B30" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E30" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B31" t="n">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E31" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B32" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E32" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B33" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E33" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B34" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E34" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B35" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E35" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B36" t="n">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E36" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B37" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E37" t="n">
-        <v>41.4140976183336</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4182,10 +5478,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B2" t="n">
         <v>86</v>
@@ -4194,15 +5499,22 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E2" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B3" t="n">
         <v>87</v>
@@ -4211,15 +5523,22 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E3" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B4" t="n">
         <v>88</v>
@@ -4228,15 +5547,22 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E4" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B5" t="n">
         <v>89</v>
@@ -4245,15 +5571,22 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E5" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B6" t="n">
         <v>90</v>
@@ -4262,15 +5595,22 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E6" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B7" t="n">
         <v>91</v>
@@ -4279,15 +5619,22 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E7" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B8" t="n">
         <v>93</v>
@@ -4296,15 +5643,22 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E8" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B9" t="n">
         <v>94</v>
@@ -4313,15 +5667,22 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E9" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B10" t="n">
         <v>95</v>
@@ -4330,15 +5691,22 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E10" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B11" t="n">
         <v>96</v>
@@ -4347,15 +5715,22 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E11" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B12" t="n">
         <v>97</v>
@@ -4364,15 +5739,22 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E12" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B13" t="n">
         <v>98</v>
@@ -4381,15 +5763,22 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E13" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B14" t="n">
         <v>100</v>
@@ -4398,15 +5787,22 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E14" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B15" t="n">
         <v>101</v>
@@ -4415,15 +5811,22 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E15" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B16" t="n">
         <v>102</v>
@@ -4432,15 +5835,22 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E16" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B17" t="n">
         <v>103</v>
@@ -4449,15 +5859,22 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E17" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B18" t="n">
         <v>104</v>
@@ -4466,15 +5883,22 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E18" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B19" t="n">
         <v>105</v>
@@ -4483,15 +5907,22 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E19" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B20" t="n">
         <v>107</v>
@@ -4500,15 +5931,22 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E20" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B21" t="n">
         <v>108</v>
@@ -4517,15 +5955,22 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E21" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B22" t="n">
         <v>109</v>
@@ -4534,15 +5979,22 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E22" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B23" t="n">
         <v>110</v>
@@ -4551,15 +6003,22 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E23" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B24" t="n">
         <v>111</v>
@@ -4568,15 +6027,22 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E24" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B25" t="n">
         <v>112</v>
@@ -4585,15 +6051,22 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E25" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B26" t="n">
         <v>114</v>
@@ -4602,15 +6075,22 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E26" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B27" t="n">
         <v>115</v>
@@ -4619,15 +6099,22 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E27" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B28" t="n">
         <v>116</v>
@@ -4636,15 +6123,22 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E28" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B29" t="n">
         <v>117</v>
@@ -4653,15 +6147,22 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E29" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B30" t="n">
         <v>118</v>
@@ -4670,15 +6171,22 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E30" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B31" t="n">
         <v>119</v>
@@ -4687,15 +6195,22 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E31" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B32" t="n">
         <v>121</v>
@@ -4704,15 +6219,22 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E32" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B33" t="n">
         <v>122</v>
@@ -4721,15 +6243,22 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E33" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B34" t="n">
         <v>123</v>
@@ -4738,15 +6267,22 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E34" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B35" t="n">
         <v>124</v>
@@ -4755,15 +6291,22 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E35" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B36" t="n">
         <v>125</v>
@@ -4772,15 +6315,22 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E36" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B37" t="n">
         <v>126</v>
@@ -4789,11 +6339,18 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E37" t="n">
-        <v>34.0718480994729</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4823,1844 +6380,2609 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>221</v>
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E15" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E16" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="B17" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="E17" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="B18" t="n">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="E18" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="E19" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="B20" t="n">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="E21" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B22" t="n">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="E22" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="B23" t="n">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="E24" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="B25" t="n">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="E25" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="B26" t="n">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="E26" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="B27" t="n">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="E27" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="B28" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="E28" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="E29" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="E30" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="B31" t="n">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="E31" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="B32" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="E32" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="B33" t="n">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="E33" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="E34" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="B35" t="n">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E35" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="B36" t="n">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="E36" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="B37" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="E37" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="B38" t="n">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="E38" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="B39" t="n">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="E39" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="B40" t="n">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="E40" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="B41" t="n">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="E41" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="B42" t="n">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="E42" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="B43" t="n">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="E43" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="B44" t="n">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="E44" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="B45" t="n">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="E45" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="B46" t="n">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="E46" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="B47" t="n">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="E47" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="B48" t="n">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="E48" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="B49" t="n">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="E49" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="B50" t="n">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="E50" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="B51" t="n">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="E51" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="B52" t="n">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="E52" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="B53" t="n">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="E53" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="B54" t="n">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="E54" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="B55" t="n">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="E55" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="E56" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="E57" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" t="n">
         <v>10</v>
       </c>
-      <c r="E58" t="n">
-        <v>52.0478854131583</v>
-      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="E59" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="E60" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="B61" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="E61" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="E62" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E63" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="B64" t="n">
+        <v>74</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" t="n">
         <v>11</v>
       </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" t="n">
-        <v>52.0478854131583</v>
-      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="B65" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="E65" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B66" t="n">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="E66" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="B67" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="E67" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="B68" t="n">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="E68" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="B69" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="E69" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="B70" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="E70" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B71" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="E71" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="B72" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="E72" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="B73" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="E73" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="B74" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="E74" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="B75" t="n">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="E75" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B76" t="n">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="E76" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="B77" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="E77" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="B78" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="E78" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="B79" t="n">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="E79" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="B80" t="n">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="E80" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="B81" t="n">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="E81" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="B82" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="E82" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="B83" t="n">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="E83" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="B84" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="E84" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="B85" t="n">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="E85" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="B86" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="E86" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="B87" t="n">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="E87" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="B88" t="n">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="E88" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="B89" t="n">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="E89" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="B90" t="n">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="E90" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="B91" t="n">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="E91" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="B92" t="n">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="E92" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="B93" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="E93" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="B94" t="n">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="E94" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="B95" t="n">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="E95" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="B96" t="n">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="E96" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="B97" t="n">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="E97" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="B98" t="n">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="E98" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="B99" t="n">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="E99" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="B100" t="n">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="E100" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="B101" t="n">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="E101" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="B102" t="n">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="E102" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="B103" t="n">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="E103" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="B104" t="n">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="E104" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="B105" t="n">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="E105" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="B106" t="n">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="E106" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="B107" t="n">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="E107" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="B108" t="n">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="E108" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="B109" t="n">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="E109" t="n">
-        <v>52.0478854131583</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QCS_Pipeline/Pipeline_#1_QCS/Excel/NO_Norm_QCS_batch_dataset_excel.xlsx
+++ b/QCS_Pipeline/Pipeline_#1_QCS/Excel/NO_Norm_QCS_batch_dataset_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,16 +27,7 @@
     <t xml:space="preserve">batch</t>
   </si>
   <si>
-    <t xml:space="preserve">QCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row</t>
+    <t xml:space="preserve">260.186</t>
   </si>
   <si>
     <t xml:space="preserve">intraday_rsd</t>
@@ -258,6 +249,114 @@
     <t xml:space="preserve">38.748527526855</t>
   </si>
   <si>
+    <t xml:space="preserve">Peak area - S10_QCS_1 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.73277282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S10_QCS_2 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.63302612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S10_QCS_3 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.038848876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S10_QCS_4 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.788349151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S10_QCS_5 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.819240570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S10_QCS_6 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.96676635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S11_QCS_1 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.27180480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S11_QCS_2 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.364265441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S11_QCS_3 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.087024688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S11_QCS_4 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.503311157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S11_QCS_5 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.915988922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S11_QCS_6 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.04782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S12_QCS_1 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.25968933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S12_QCS_2 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.47073364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S12_QCS_3 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.432899475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S12_QCS_4 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.262626647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S12_QCS_5 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.42797088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak area - S12_QCS_6 - No Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.96886444092</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peak area - S7_QCS_1 - No Normalization</t>
   </si>
   <si>
@@ -364,114 +463,6 @@
   </si>
   <si>
     <t xml:space="preserve">123.85231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S10_QCS_1 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.73277282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S10_QCS_2 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.63302612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S10_QCS_3 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.038848876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S10_QCS_4 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.788349151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S10_QCS_5 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.819240570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S10_QCS_6 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.96676635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S11_QCS_1 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.27180480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S11_QCS_2 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.364265441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S11_QCS_3 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.087024688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S11_QCS_4 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.503311157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S11_QCS_5 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.915988922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S11_QCS_6 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.04782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S12_QCS_1 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.25968933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S12_QCS_2 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.47073364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S12_QCS_3 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.432899475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S12_QCS_4 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.262626647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S12_QCS_5 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.42797088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak area - S12_QCS_6 - No Normalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.96886444092</t>
   </si>
   <si>
     <t xml:space="preserve">Peak area - S13_QCS_1 - No Normalization</t>
@@ -1036,2609 +1027,1844 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="B21" t="n">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="B25" t="n">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="B26" t="n">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="B27" t="n">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="B29" t="n">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="B30" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="B31" t="n">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="B32" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="B33" t="n">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="B34" t="n">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="B36" t="n">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="B37" t="n">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="B39" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="B40" t="n">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="B41" t="n">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="B42" t="n">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="B43" t="n">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="B44" t="n">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="B45" t="n">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="B46" t="n">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="B47" t="n">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="B48" t="n">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="B49" t="n">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="B50" t="n">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="B51" t="n">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="B52" t="n">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="B53" t="n">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2</v>
-      </c>
-      <c r="H53"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="B54" t="n">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2</v>
-      </c>
-      <c r="H54"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="B55" t="n">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="B56" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="B57" t="n">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="B58" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="B59" t="n">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2</v>
-      </c>
-      <c r="H59"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="B60" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="n">
-        <v>2</v>
-      </c>
-      <c r="H60"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="B61" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2</v>
-      </c>
-      <c r="H61"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="B63" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E63" t="n">
-        <v>11</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="B64" t="n">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="E64" t="n">
-        <v>11</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="B65" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2</v>
-      </c>
-      <c r="H65"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="B66" t="n">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="E66" t="n">
-        <v>11</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G66" t="n">
-        <v>2</v>
-      </c>
-      <c r="H66"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="B67" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="E67" t="n">
-        <v>11</v>
-      </c>
-      <c r="F67" t="n">
-        <v>2</v>
-      </c>
-      <c r="G67" t="n">
-        <v>2</v>
-      </c>
-      <c r="H67"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="B68" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="B69" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="B70" t="n">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="B71" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
-      </c>
-      <c r="F71" t="n">
-        <v>2</v>
-      </c>
-      <c r="G71" t="n">
-        <v>2</v>
-      </c>
-      <c r="H71"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="B72" t="n">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="E72" t="n">
-        <v>12</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2</v>
-      </c>
-      <c r="H72"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="B73" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="E73" t="n">
-        <v>12</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2</v>
-      </c>
-      <c r="G73" t="n">
-        <v>2</v>
-      </c>
-      <c r="H73"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="B74" t="n">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="E74" t="n">
-        <v>13</v>
-      </c>
-      <c r="F74" t="n">
-        <v>3</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="B75" t="n">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="E75" t="n">
-        <v>13</v>
-      </c>
-      <c r="F75" t="n">
-        <v>3</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="B76" t="n">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="E76" t="n">
-        <v>13</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="B77" t="n">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="E77" t="n">
-        <v>13</v>
-      </c>
-      <c r="F77" t="n">
-        <v>3</v>
-      </c>
-      <c r="G77" t="n">
-        <v>2</v>
-      </c>
-      <c r="H77"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="B78" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="E78" t="n">
-        <v>13</v>
-      </c>
-      <c r="F78" t="n">
-        <v>3</v>
-      </c>
-      <c r="G78" t="n">
-        <v>2</v>
-      </c>
-      <c r="H78"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="B79" t="n">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="E79" t="n">
-        <v>13</v>
-      </c>
-      <c r="F79" t="n">
-        <v>3</v>
-      </c>
-      <c r="G79" t="n">
-        <v>2</v>
-      </c>
-      <c r="H79"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="B80" t="n">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="E80" t="n">
-        <v>14</v>
-      </c>
-      <c r="F80" t="n">
-        <v>3</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="B81" t="n">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="E81" t="n">
-        <v>14</v>
-      </c>
-      <c r="F81" t="n">
-        <v>3</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="B82" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="E82" t="n">
-        <v>14</v>
-      </c>
-      <c r="F82" t="n">
-        <v>3</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="B83" t="n">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="E83" t="n">
-        <v>14</v>
-      </c>
-      <c r="F83" t="n">
-        <v>3</v>
-      </c>
-      <c r="G83" t="n">
-        <v>2</v>
-      </c>
-      <c r="H83"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="B84" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="E84" t="n">
-        <v>14</v>
-      </c>
-      <c r="F84" t="n">
-        <v>3</v>
-      </c>
-      <c r="G84" t="n">
-        <v>2</v>
-      </c>
-      <c r="H84"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="B85" t="n">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="E85" t="n">
-        <v>14</v>
-      </c>
-      <c r="F85" t="n">
-        <v>3</v>
-      </c>
-      <c r="G85" t="n">
-        <v>2</v>
-      </c>
-      <c r="H85"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="B86" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="B87" t="n">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
-      </c>
-      <c r="F87" t="n">
-        <v>3</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="B88" t="n">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
-      </c>
-      <c r="F88" t="n">
-        <v>3</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="B89" t="n">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
-      </c>
-      <c r="F89" t="n">
-        <v>3</v>
-      </c>
-      <c r="G89" t="n">
-        <v>2</v>
-      </c>
-      <c r="H89"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="B90" t="n">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="E90" t="n">
-        <v>15</v>
-      </c>
-      <c r="F90" t="n">
-        <v>3</v>
-      </c>
-      <c r="G90" t="n">
-        <v>2</v>
-      </c>
-      <c r="H90"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="B91" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="E91" t="n">
-        <v>15</v>
-      </c>
-      <c r="F91" t="n">
-        <v>3</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2</v>
-      </c>
-      <c r="H91"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="B92" t="n">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="E92" t="n">
-        <v>16</v>
-      </c>
-      <c r="F92" t="n">
-        <v>3</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="B93" t="n">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="E93" t="n">
-        <v>16</v>
-      </c>
-      <c r="F93" t="n">
-        <v>3</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="B94" t="n">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="E94" t="n">
-        <v>16</v>
-      </c>
-      <c r="F94" t="n">
-        <v>3</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="B95" t="n">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="E95" t="n">
-        <v>16</v>
-      </c>
-      <c r="F95" t="n">
-        <v>3</v>
-      </c>
-      <c r="G95" t="n">
-        <v>2</v>
-      </c>
-      <c r="H95"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="B96" t="n">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="E96" t="n">
-        <v>16</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3</v>
-      </c>
-      <c r="G96" t="n">
-        <v>2</v>
-      </c>
-      <c r="H96"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="B97" t="n">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="E97" t="n">
-        <v>16</v>
-      </c>
-      <c r="F97" t="n">
-        <v>3</v>
-      </c>
-      <c r="G97" t="n">
-        <v>2</v>
-      </c>
-      <c r="H97"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="B98" t="n">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="E98" t="n">
-        <v>17</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="B99" t="n">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="E99" t="n">
-        <v>17</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="B100" t="n">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="E100" t="n">
-        <v>17</v>
-      </c>
-      <c r="F100" t="n">
-        <v>3</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1</v>
-      </c>
-      <c r="H100"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="B101" t="n">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="E101" t="n">
-        <v>17</v>
-      </c>
-      <c r="F101" t="n">
-        <v>3</v>
-      </c>
-      <c r="G101" t="n">
-        <v>2</v>
-      </c>
-      <c r="H101"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="B102" t="n">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="E102" t="n">
-        <v>17</v>
-      </c>
-      <c r="F102" t="n">
-        <v>3</v>
-      </c>
-      <c r="G102" t="n">
-        <v>2</v>
-      </c>
-      <c r="H102"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="B103" t="n">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="E103" t="n">
-        <v>17</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3</v>
-      </c>
-      <c r="G103" t="n">
-        <v>2</v>
-      </c>
-      <c r="H103"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="B104" t="n">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="E104" t="n">
-        <v>18</v>
-      </c>
-      <c r="F104" t="n">
-        <v>3</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1</v>
-      </c>
-      <c r="H104"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="E105" t="n">
-        <v>18</v>
-      </c>
-      <c r="F105" t="n">
-        <v>3</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1</v>
-      </c>
-      <c r="H105"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="B106" t="n">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="E106" t="n">
-        <v>18</v>
-      </c>
-      <c r="F106" t="n">
-        <v>3</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1</v>
-      </c>
-      <c r="H106"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="B107" t="n">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="E107" t="n">
-        <v>18</v>
-      </c>
-      <c r="F107" t="n">
-        <v>3</v>
-      </c>
-      <c r="G107" t="n">
-        <v>2</v>
-      </c>
-      <c r="H107"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="B108" t="n">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="E108" t="n">
-        <v>18</v>
-      </c>
-      <c r="F108" t="n">
-        <v>3</v>
-      </c>
-      <c r="G108" t="n">
-        <v>2</v>
-      </c>
-      <c r="H108"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="B109" t="n">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="E109" t="n">
-        <v>18</v>
-      </c>
-      <c r="F109" t="n">
-        <v>3</v>
-      </c>
-      <c r="G109" t="n">
-        <v>2</v>
-      </c>
-      <c r="H109"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3670,19 +2896,10 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -3691,22 +2908,15 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -3715,22 +2925,15 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -3739,22 +2942,15 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>5</v>
@@ -3763,22 +2959,15 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -3787,22 +2976,15 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
@@ -3811,22 +2993,15 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
         <v>9</v>
@@ -3835,22 +3010,15 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n">
         <v>10</v>
@@ -3859,22 +3027,15 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>11</v>
@@ -3883,22 +3044,15 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>12</v>
@@ -3907,22 +3061,15 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
         <v>13</v>
@@ -3931,22 +3078,15 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" t="n">
         <v>14</v>
@@ -3955,22 +3095,15 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" t="n">
         <v>16</v>
@@ -3979,22 +3112,15 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" t="n">
         <v>17</v>
@@ -4003,22 +3129,15 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" t="n">
         <v>18</v>
@@ -4027,22 +3146,15 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>19</v>
@@ -4051,22 +3163,15 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" t="n">
         <v>20</v>
@@ -4075,22 +3180,15 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n">
         <v>21</v>
@@ -4099,22 +3197,15 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" t="n">
         <v>23</v>
@@ -4123,22 +3214,15 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" t="n">
         <v>24</v>
@@ -4147,22 +3231,15 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
         <v>25</v>
@@ -4171,22 +3248,15 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B23" t="n">
         <v>26</v>
@@ -4195,22 +3265,15 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24" t="n">
         <v>27</v>
@@ -4219,22 +3282,15 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" t="n">
         <v>28</v>
@@ -4243,22 +3299,15 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" t="n">
         <v>30</v>
@@ -4267,22 +3316,15 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B27" t="n">
         <v>31</v>
@@ -4291,22 +3333,15 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28" t="n">
         <v>32</v>
@@ -4315,22 +3350,15 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B29" t="n">
         <v>33</v>
@@ -4339,22 +3367,15 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30" t="n">
         <v>34</v>
@@ -4363,22 +3384,15 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B31" t="n">
         <v>35</v>
@@ -4387,22 +3401,15 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" t="n">
         <v>37</v>
@@ -4411,22 +3418,15 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n">
         <v>38</v>
@@ -4435,22 +3435,15 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B34" t="n">
         <v>39</v>
@@ -4459,22 +3452,15 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B35" t="n">
         <v>40</v>
@@ -4483,22 +3469,15 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B36" t="n">
         <v>41</v>
@@ -4507,22 +3486,15 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
         <v>42</v>
@@ -4531,18 +3503,11 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37"/>
+        <v>70.5002514662777</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4574,879 +3539,618 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B5" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B11" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B12" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B13" t="n">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B14" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B15" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B16" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B17" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B19" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B20" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B21" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B22" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B23" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B25" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B27" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B28" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E28" t="n">
-        <v>11</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B29" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B30" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B31" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B32" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B33" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B34" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E34" t="n">
-        <v>12</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B35" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B36" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B37" t="n">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37"/>
+        <v>41.4140976183336</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5478,19 +4182,10 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B2" t="n">
         <v>86</v>
@@ -5499,22 +4194,15 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" t="n">
         <v>87</v>
@@ -5523,22 +4211,15 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B4" t="n">
         <v>88</v>
@@ -5547,22 +4228,15 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B5" t="n">
         <v>89</v>
@@ -5571,22 +4245,15 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B6" t="n">
         <v>90</v>
@@ -5595,22 +4262,15 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B7" t="n">
         <v>91</v>
@@ -5619,22 +4279,15 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B8" t="n">
         <v>93</v>
@@ -5643,22 +4296,15 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B9" t="n">
         <v>94</v>
@@ -5667,22 +4313,15 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B10" t="n">
         <v>95</v>
@@ -5691,22 +4330,15 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B11" t="n">
         <v>96</v>
@@ -5715,22 +4347,15 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B12" t="n">
         <v>97</v>
@@ -5739,22 +4364,15 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B13" t="n">
         <v>98</v>
@@ -5763,22 +4381,15 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B14" t="n">
         <v>100</v>
@@ -5787,22 +4398,15 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B15" t="n">
         <v>101</v>
@@ -5811,22 +4415,15 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B16" t="n">
         <v>102</v>
@@ -5835,22 +4432,15 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B17" t="n">
         <v>103</v>
@@ -5859,22 +4449,15 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B18" t="n">
         <v>104</v>
@@ -5883,22 +4466,15 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B19" t="n">
         <v>105</v>
@@ -5907,22 +4483,15 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B20" t="n">
         <v>107</v>
@@ -5931,22 +4500,15 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B21" t="n">
         <v>108</v>
@@ -5955,22 +4517,15 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B22" t="n">
         <v>109</v>
@@ -5979,22 +4534,15 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B23" t="n">
         <v>110</v>
@@ -6003,22 +4551,15 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B24" t="n">
         <v>111</v>
@@ -6027,22 +4568,15 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E24" t="n">
-        <v>16</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B25" t="n">
         <v>112</v>
@@ -6051,22 +4585,15 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B26" t="n">
         <v>114</v>
@@ -6075,22 +4602,15 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E26" t="n">
-        <v>17</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B27" t="n">
         <v>115</v>
@@ -6099,22 +4619,15 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B28" t="n">
         <v>116</v>
@@ -6123,22 +4636,15 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E28" t="n">
-        <v>17</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B29" t="n">
         <v>117</v>
@@ -6147,22 +4653,15 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E29" t="n">
-        <v>17</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B30" t="n">
         <v>118</v>
@@ -6171,22 +4670,15 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E30" t="n">
-        <v>17</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B31" t="n">
         <v>119</v>
@@ -6195,22 +4687,15 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E31" t="n">
-        <v>17</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B32" t="n">
         <v>121</v>
@@ -6219,22 +4704,15 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E32" t="n">
-        <v>18</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B33" t="n">
         <v>122</v>
@@ -6243,22 +4721,15 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E33" t="n">
-        <v>18</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B34" t="n">
         <v>123</v>
@@ -6267,22 +4738,15 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E34" t="n">
-        <v>18</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B35" t="n">
         <v>124</v>
@@ -6291,22 +4755,15 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E35" t="n">
-        <v>18</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B36" t="n">
         <v>125</v>
@@ -6315,22 +4772,15 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E36" t="n">
-        <v>18</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B37" t="n">
         <v>126</v>
@@ -6339,18 +4789,11 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E37" t="n">
-        <v>18</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37"/>
+        <v>34.0718480994729</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6380,2609 +4823,1844 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="B21" t="n">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="B25" t="n">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="B26" t="n">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="B27" t="n">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="B29" t="n">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="B30" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="B31" t="n">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="B32" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="B33" t="n">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="B34" t="n">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="B36" t="n">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="B37" t="n">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="B39" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="B40" t="n">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="B41" t="n">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="B42" t="n">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="B43" t="n">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="B44" t="n">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="B45" t="n">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="B46" t="n">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="B47" t="n">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="B48" t="n">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="B49" t="n">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="B50" t="n">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="B51" t="n">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="B52" t="n">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="B53" t="n">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2</v>
-      </c>
-      <c r="H53"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="B54" t="n">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2</v>
-      </c>
-      <c r="H54"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="B55" t="n">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="B56" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="B57" t="n">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="B58" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="B59" t="n">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2</v>
-      </c>
-      <c r="H59"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="B60" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="n">
-        <v>2</v>
-      </c>
-      <c r="H60"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="B61" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2</v>
-      </c>
-      <c r="H61"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="B63" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E63" t="n">
-        <v>11</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="B64" t="n">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="E64" t="n">
-        <v>11</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="B65" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2</v>
-      </c>
-      <c r="H65"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="B66" t="n">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="E66" t="n">
-        <v>11</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G66" t="n">
-        <v>2</v>
-      </c>
-      <c r="H66"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="B67" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="E67" t="n">
-        <v>11</v>
-      </c>
-      <c r="F67" t="n">
-        <v>2</v>
-      </c>
-      <c r="G67" t="n">
-        <v>2</v>
-      </c>
-      <c r="H67"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="B68" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="B69" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="B70" t="n">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="B71" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
-      </c>
-      <c r="F71" t="n">
-        <v>2</v>
-      </c>
-      <c r="G71" t="n">
-        <v>2</v>
-      </c>
-      <c r="H71"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="B72" t="n">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="E72" t="n">
-        <v>12</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2</v>
-      </c>
-      <c r="H72"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="B73" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="E73" t="n">
-        <v>12</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2</v>
-      </c>
-      <c r="G73" t="n">
-        <v>2</v>
-      </c>
-      <c r="H73"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="B74" t="n">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="E74" t="n">
-        <v>13</v>
-      </c>
-      <c r="F74" t="n">
-        <v>3</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="B75" t="n">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="E75" t="n">
-        <v>13</v>
-      </c>
-      <c r="F75" t="n">
-        <v>3</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="B76" t="n">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="E76" t="n">
-        <v>13</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="B77" t="n">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="E77" t="n">
-        <v>13</v>
-      </c>
-      <c r="F77" t="n">
-        <v>3</v>
-      </c>
-      <c r="G77" t="n">
-        <v>2</v>
-      </c>
-      <c r="H77"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="B78" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="E78" t="n">
-        <v>13</v>
-      </c>
-      <c r="F78" t="n">
-        <v>3</v>
-      </c>
-      <c r="G78" t="n">
-        <v>2</v>
-      </c>
-      <c r="H78"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="B79" t="n">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="E79" t="n">
-        <v>13</v>
-      </c>
-      <c r="F79" t="n">
-        <v>3</v>
-      </c>
-      <c r="G79" t="n">
-        <v>2</v>
-      </c>
-      <c r="H79"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="B80" t="n">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="E80" t="n">
-        <v>14</v>
-      </c>
-      <c r="F80" t="n">
-        <v>3</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="B81" t="n">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="E81" t="n">
-        <v>14</v>
-      </c>
-      <c r="F81" t="n">
-        <v>3</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="B82" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="E82" t="n">
-        <v>14</v>
-      </c>
-      <c r="F82" t="n">
-        <v>3</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="B83" t="n">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="E83" t="n">
-        <v>14</v>
-      </c>
-      <c r="F83" t="n">
-        <v>3</v>
-      </c>
-      <c r="G83" t="n">
-        <v>2</v>
-      </c>
-      <c r="H83"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="B84" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="E84" t="n">
-        <v>14</v>
-      </c>
-      <c r="F84" t="n">
-        <v>3</v>
-      </c>
-      <c r="G84" t="n">
-        <v>2</v>
-      </c>
-      <c r="H84"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="B85" t="n">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="E85" t="n">
-        <v>14</v>
-      </c>
-      <c r="F85" t="n">
-        <v>3</v>
-      </c>
-      <c r="G85" t="n">
-        <v>2</v>
-      </c>
-      <c r="H85"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="B86" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="B87" t="n">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
-      </c>
-      <c r="F87" t="n">
-        <v>3</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="B88" t="n">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
-      </c>
-      <c r="F88" t="n">
-        <v>3</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="B89" t="n">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
-      </c>
-      <c r="F89" t="n">
-        <v>3</v>
-      </c>
-      <c r="G89" t="n">
-        <v>2</v>
-      </c>
-      <c r="H89"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="B90" t="n">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="E90" t="n">
-        <v>15</v>
-      </c>
-      <c r="F90" t="n">
-        <v>3</v>
-      </c>
-      <c r="G90" t="n">
-        <v>2</v>
-      </c>
-      <c r="H90"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="B91" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="E91" t="n">
-        <v>15</v>
-      </c>
-      <c r="F91" t="n">
-        <v>3</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2</v>
-      </c>
-      <c r="H91"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="B92" t="n">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="E92" t="n">
-        <v>16</v>
-      </c>
-      <c r="F92" t="n">
-        <v>3</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="B93" t="n">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="E93" t="n">
-        <v>16</v>
-      </c>
-      <c r="F93" t="n">
-        <v>3</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="B94" t="n">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="E94" t="n">
-        <v>16</v>
-      </c>
-      <c r="F94" t="n">
-        <v>3</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="B95" t="n">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="E95" t="n">
-        <v>16</v>
-      </c>
-      <c r="F95" t="n">
-        <v>3</v>
-      </c>
-      <c r="G95" t="n">
-        <v>2</v>
-      </c>
-      <c r="H95"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="B96" t="n">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="E96" t="n">
-        <v>16</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3</v>
-      </c>
-      <c r="G96" t="n">
-        <v>2</v>
-      </c>
-      <c r="H96"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="B97" t="n">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="E97" t="n">
-        <v>16</v>
-      </c>
-      <c r="F97" t="n">
-        <v>3</v>
-      </c>
-      <c r="G97" t="n">
-        <v>2</v>
-      </c>
-      <c r="H97"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="B98" t="n">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="E98" t="n">
-        <v>17</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="B99" t="n">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="E99" t="n">
-        <v>17</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="B100" t="n">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="E100" t="n">
-        <v>17</v>
-      </c>
-      <c r="F100" t="n">
-        <v>3</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1</v>
-      </c>
-      <c r="H100"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="B101" t="n">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="E101" t="n">
-        <v>17</v>
-      </c>
-      <c r="F101" t="n">
-        <v>3</v>
-      </c>
-      <c r="G101" t="n">
-        <v>2</v>
-      </c>
-      <c r="H101"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="B102" t="n">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="E102" t="n">
-        <v>17</v>
-      </c>
-      <c r="F102" t="n">
-        <v>3</v>
-      </c>
-      <c r="G102" t="n">
-        <v>2</v>
-      </c>
-      <c r="H102"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="B103" t="n">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="E103" t="n">
-        <v>17</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3</v>
-      </c>
-      <c r="G103" t="n">
-        <v>2</v>
-      </c>
-      <c r="H103"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="B104" t="n">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="E104" t="n">
-        <v>18</v>
-      </c>
-      <c r="F104" t="n">
-        <v>3</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1</v>
-      </c>
-      <c r="H104"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="E105" t="n">
-        <v>18</v>
-      </c>
-      <c r="F105" t="n">
-        <v>3</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1</v>
-      </c>
-      <c r="H105"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="B106" t="n">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="E106" t="n">
-        <v>18</v>
-      </c>
-      <c r="F106" t="n">
-        <v>3</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1</v>
-      </c>
-      <c r="H106"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="B107" t="n">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="E107" t="n">
-        <v>18</v>
-      </c>
-      <c r="F107" t="n">
-        <v>3</v>
-      </c>
-      <c r="G107" t="n">
-        <v>2</v>
-      </c>
-      <c r="H107"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="B108" t="n">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="E108" t="n">
-        <v>18</v>
-      </c>
-      <c r="F108" t="n">
-        <v>3</v>
-      </c>
-      <c r="G108" t="n">
-        <v>2</v>
-      </c>
-      <c r="H108"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="B109" t="n">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="E109" t="n">
-        <v>18</v>
-      </c>
-      <c r="F109" t="n">
-        <v>3</v>
-      </c>
-      <c r="G109" t="n">
-        <v>2</v>
-      </c>
-      <c r="H109"/>
+        <v>52.0478854131583</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
